--- a/www/IndicatorsPerCountry/Uganda_CopperProduction_TerritorialRef_1962_2012_CCode_800.xlsx
+++ b/www/IndicatorsPerCountry/Uganda_CopperProduction_TerritorialRef_1962_2012_CCode_800.xlsx
@@ -120,13 +120,13 @@
     <t>Klein Goldewijk, Kees and Jonathan Fink-Jensen (2015). Copper Production. http://hdl.handle.net/10622/GI7D06, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.xml</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.xml</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.ris</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.ris</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Uganda_CopperProduction_TerritorialRef_1962_2012_CCode_800.xlsx
+++ b/www/IndicatorsPerCountry/Uganda_CopperProduction_TerritorialRef_1962_2012_CCode_800.xlsx
@@ -39,58 +39,58 @@
     <t>0</t>
   </si>
   <si>
-    <t>11.3</t>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>16.2</t>
   </si>
   <si>
-    <t>17.6</t>
+    <t>18.3</t>
   </si>
   <si>
-    <t>16.7</t>
+    <t>20</t>
   </si>
   <si>
-    <t>16.9</t>
+    <t>17.2</t>
   </si>
   <si>
-    <t>18.1</t>
+    <t>15</t>
   </si>
   <si>
-    <t>16.6</t>
+    <t>15.2</t>
   </si>
   <si>
-    <t>13.7</t>
+    <t>16.5</t>
   </si>
   <si>
-    <t>13.5</t>
+    <t>18</t>
   </si>
   <si>
-    <t>13.4</t>
+    <t>16</t>
   </si>
   <si>
-    <t>8.8</t>
+    <t>14</t>
   </si>
   <si>
-    <t>4.3</t>
+    <t>12</t>
   </si>
   <si>
-    <t>7.395</t>
+    <t>9</t>
   </si>
   <si>
-    <t>14.826</t>
+    <t>7</t>
   </si>
   <si>
-    <t>15.563</t>
-  </si>
-  <si>
-    <t>16.53</t>
-  </si>
-  <si>
-    <t>21.116</t>
-  </si>
-  <si>
-    <t>19.684</t>
+    <t>8.3</t>
   </si>
   <si>
     <t>Description</t>
@@ -4118,7 +4118,7 @@
         <v>1957.0</v>
       </c>
       <c r="E232" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="233">
@@ -4135,7 +4135,7 @@
         <v>1958.0</v>
       </c>
       <c r="E233" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="234">
@@ -4152,7 +4152,7 @@
         <v>1959.0</v>
       </c>
       <c r="E234" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235">
@@ -4169,7 +4169,7 @@
         <v>1960.0</v>
       </c>
       <c r="E235" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="236">
@@ -4186,7 +4186,7 @@
         <v>1961.0</v>
       </c>
       <c r="E236" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="237">
@@ -4203,7 +4203,7 @@
         <v>1962.0</v>
       </c>
       <c r="E237" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="238">
@@ -4220,7 +4220,7 @@
         <v>1963.0</v>
       </c>
       <c r="E238" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="239">
@@ -4237,7 +4237,7 @@
         <v>1964.0</v>
       </c>
       <c r="E239" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="240">
@@ -4254,7 +4254,7 @@
         <v>1965.0</v>
       </c>
       <c r="E240" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="241">
@@ -4271,7 +4271,7 @@
         <v>1966.0</v>
       </c>
       <c r="E241" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="242">
@@ -4288,7 +4288,7 @@
         <v>1967.0</v>
       </c>
       <c r="E242" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="243">
@@ -4305,7 +4305,7 @@
         <v>1968.0</v>
       </c>
       <c r="E243" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="244">
@@ -4322,7 +4322,7 @@
         <v>1969.0</v>
       </c>
       <c r="E244" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="245">
@@ -4339,7 +4339,7 @@
         <v>1970.0</v>
       </c>
       <c r="E245" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="246">
@@ -4356,7 +4356,7 @@
         <v>1971.0</v>
       </c>
       <c r="E246" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="247">
@@ -4373,7 +4373,7 @@
         <v>1972.0</v>
       </c>
       <c r="E247" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="248">
@@ -4390,7 +4390,7 @@
         <v>1973.0</v>
       </c>
       <c r="E248" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="249">
@@ -4407,7 +4407,7 @@
         <v>1974.0</v>
       </c>
       <c r="E249" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="250">
@@ -4424,7 +4424,7 @@
         <v>1975.0</v>
       </c>
       <c r="E250" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="251">
@@ -4441,7 +4441,7 @@
         <v>1976.0</v>
       </c>
       <c r="E251" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="252">
@@ -4458,7 +4458,7 @@
         <v>1977.0</v>
       </c>
       <c r="E252" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="253">
@@ -4560,7 +4560,7 @@
         <v>1983.0</v>
       </c>
       <c r="E258" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="259">
@@ -4577,7 +4577,7 @@
         <v>1984.0</v>
       </c>
       <c r="E259" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260">
@@ -4594,7 +4594,7 @@
         <v>1985.0</v>
       </c>
       <c r="E260" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="261">
@@ -4611,7 +4611,7 @@
         <v>1986.0</v>
       </c>
       <c r="E261" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262">
@@ -4628,7 +4628,7 @@
         <v>1987.0</v>
       </c>
       <c r="E262" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="263">
@@ -4645,7 +4645,7 @@
         <v>1988.0</v>
       </c>
       <c r="E263" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="264">
@@ -4662,7 +4662,7 @@
         <v>1989.0</v>
       </c>
       <c r="E264" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="265">
@@ -4679,7 +4679,7 @@
         <v>1990.0</v>
       </c>
       <c r="E265" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266">
@@ -4696,7 +4696,7 @@
         <v>1991.0</v>
       </c>
       <c r="E266" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="267">
@@ -4713,7 +4713,7 @@
         <v>1992.0</v>
       </c>
       <c r="E267" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268">
@@ -4730,7 +4730,7 @@
         <v>1993.0</v>
       </c>
       <c r="E268" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269">
@@ -4747,7 +4747,7 @@
         <v>1994.0</v>
       </c>
       <c r="E269" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="270">
@@ -4968,7 +4968,7 @@
         <v>2007.0</v>
       </c>
       <c r="E282" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="283">
@@ -4985,7 +4985,7 @@
         <v>2008.0</v>
       </c>
       <c r="E283" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="284">
@@ -5002,7 +5002,7 @@
         <v>2009.0</v>
       </c>
       <c r="E284" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="285">
@@ -5019,7 +5019,7 @@
         <v>2010.0</v>
       </c>
       <c r="E285" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="286">
@@ -5036,7 +5036,7 @@
         <v>2011.0</v>
       </c>
       <c r="E286" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="287">
@@ -5053,7 +5053,7 @@
         <v>2012.0</v>
       </c>
       <c r="E287" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
